--- a/系统设计.xlsx
+++ b/系统设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能设计" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,13 +167,17 @@
   </si>
   <si>
     <t>命题查询、命题修改、命题删除、结果导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布选题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,11 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,7 +699,9 @@
         <v>34</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
